--- a/src/main/resources/项目借款dwd.xlsx
+++ b/src/main/resources/项目借款dwd.xlsx
@@ -461,11 +461,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>关联字段：【ods_geps_meta_build_contract_d_a】字段【ht_id】
-取【htfl】</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>requisition_id</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -480,6 +475,11 @@
   </si>
   <si>
     <t>特殊说明 组织机构清洗由ods层表的字段【xmjbxx_id】关联的项目基本信息【ods_geps_meta_project_info_d_a】施工项目部字段【sgxmbm_deptid】关联组织机构映射关系【dim_org_mapping】获取，与一般单据有所区别</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联字段：【ods_geps_meta_build_contract_d_a】字段【ht_id】
+取【htfl】</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -688,6 +688,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -696,15 +705,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -988,8 +988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1002,18 +1002,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="13"/>
-    </row>
-    <row r="2" spans="1:8" ht="110.25">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="16"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1154,14 +1154,14 @@
       <c r="F7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="172.5">
+    <row r="8" spans="1:8" ht="34.5">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1180,7 +1180,7 @@
       <c r="F8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="13" t="s">
         <v>138</v>
       </c>
       <c r="H8" s="4"/>
@@ -1257,7 +1257,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="34.5">
+    <row r="12" spans="1:8" ht="17.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1279,7 +1279,7 @@
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:8" ht="34.5">
+    <row r="13" spans="1:8" ht="17.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1323,7 +1323,7 @@
       <c r="G14" s="8"/>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" spans="1:8" ht="34.5">
+    <row r="15" spans="1:8" ht="17.25">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -1345,7 +1345,7 @@
       <c r="G15" s="8"/>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" spans="1:8" ht="34.5">
+    <row r="16" spans="1:8" ht="17.25">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -1576,7 +1576,7 @@
       <c r="F25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="G25" s="11" t="s">
         <v>139</v>
       </c>
       <c r="H25" s="4" t="s">
@@ -1603,7 +1603,7 @@
         <v>11</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H26" s="4"/>
     </row>
@@ -1663,7 +1663,7 @@
         <v>73</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>10</v>
@@ -1689,19 +1689,19 @@
         <v>76</v>
       </c>
       <c r="C30" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>147</v>
       </c>
       <c r="H30" s="4"/>
     </row>
@@ -1748,14 +1748,14 @@
       <c r="F32" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G32" s="14" t="s">
+      <c r="G32" s="11" t="s">
         <v>74</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="172.5">
+    <row r="33" spans="1:8" ht="34.5">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -2106,8 +2106,8 @@
       <c r="F47" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G47" s="16" t="s">
-        <v>148</v>
+      <c r="G47" s="13" t="s">
+        <v>147</v>
       </c>
       <c r="H47" s="4"/>
     </row>
